--- a/biology/Botanique/Parc_Xiangshan/Parc_Xiangshan.xlsx
+++ b/biology/Botanique/Parc_Xiangshan/Parc_Xiangshan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Xiangshan (en chinois simplifié : 香山公园 ; chinois traditionnel : 香山公園 ; pinyin : Xiāngshān gōngyuán ; litt. « Jardin public des collines parfumées », traduit en anglais en Fragrant Hills Park), est un jardin impérial de la dynastie Ming, situé au pied des montagnes de l'ouest (en) dans le district de Haidian, dans la partie nord-ouest de Pékin, en Chine.
@@ -515,7 +527,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pagode vernissée (琉璃塔)
